--- a/Clone/Board/Partlist/PARTLIST.xlsx
+++ b/Clone/Board/Partlist/PARTLIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/413371ccaeb13dfa/Documentos/GitHub/MercuryAce/Clone/Board/Eagle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/413371ccaeb13dfa/Documentos/GitHub/Mercury_Ace/Clone/Board/Partlist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{561BF4B6-8C95-49D5-92BB-1F0D5967B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FA060EF-F1AE-47B9-9944-F95E9CC22D16}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{561BF4B6-8C95-49D5-92BB-1F0D5967B6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FFD39E7-CCFD-4CC5-891F-7A5EDEED68C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2ACF5724-07AA-4D5B-966B-E08F242614DF}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="13920" xr2:uid="{2ACF5724-07AA-4D5B-966B-E08F242614DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="179">
   <si>
     <t>Part</t>
   </si>
@@ -248,12 +248,6 @@
     <t>22K</t>
   </si>
   <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>220K</t>
-  </si>
-  <si>
     <t>R26</t>
   </si>
   <si>
@@ -458,106 +452,127 @@
     <t>R28,R29</t>
   </si>
   <si>
+    <t>D1..D17</t>
+  </si>
+  <si>
+    <t>C7,C11,C12</t>
+  </si>
+  <si>
+    <t>K1..K41</t>
+  </si>
+  <si>
+    <t>RN1 (instead R36,R37,R38,R40,R41)</t>
+  </si>
+  <si>
+    <t>RESISTOR NETWORK</t>
+  </si>
+  <si>
+    <t>Z14..Z18</t>
+  </si>
+  <si>
+    <t>Z19,Z30,Z41</t>
+  </si>
+  <si>
+    <t>Z24,Z25</t>
+  </si>
+  <si>
+    <t>Z21,Z22,Z31</t>
+  </si>
+  <si>
+    <t>Z9,Z10,Z11</t>
+  </si>
+  <si>
+    <t>Z1,Z27</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>ONLY WITH ACE81</t>
+  </si>
+  <si>
+    <t>VIDEO CONN</t>
+  </si>
+  <si>
+    <t>AV-8.4-5 3 PINES</t>
+  </si>
+  <si>
+    <t>Z3-4,Z5-6,Z7-8</t>
+  </si>
+  <si>
+    <t>256Kbit (32KBx8)</t>
+  </si>
+  <si>
+    <t>PASSIVE BUZZER 16 ohm</t>
+  </si>
+  <si>
+    <t>JACK 3.5mm</t>
+  </si>
+  <si>
+    <t>EAR,MIC,POWER</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>PUSH BUTTON 90º</t>
+  </si>
+  <si>
+    <t>DIPSWITCH</t>
+  </si>
+  <si>
+    <t>C10,C13..C21</t>
+  </si>
+  <si>
+    <t>DO NOT INSTALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLY WITH SJ1 OPENED </t>
+  </si>
+  <si>
+    <t>SRAM</t>
+  </si>
+  <si>
+    <t>ONLY WITHOUT ACE81</t>
+  </si>
+  <si>
+    <t>Replace D12..D17 by a 0R resistor</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>R30,R31</t>
+  </si>
+  <si>
+    <t>R36..R38,R40,R41</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>10pF</t>
+  </si>
+  <si>
     <t>R8,R10,R24,R27,R39,R42</t>
   </si>
   <si>
-    <t>D1..D17</t>
-  </si>
-  <si>
-    <t>C7,C11,C12</t>
-  </si>
-  <si>
-    <t>C3,C8</t>
-  </si>
-  <si>
-    <t>K1..K41</t>
-  </si>
-  <si>
-    <t>R30,R31,R36..R38,R40,R41</t>
-  </si>
-  <si>
-    <t>RN1 (instead R36,R37,R38,R40,R41)</t>
-  </si>
-  <si>
-    <t>RESISTOR NETWORK</t>
-  </si>
-  <si>
-    <t>Z14..Z18</t>
-  </si>
-  <si>
-    <t>Z19,Z30,Z41</t>
-  </si>
-  <si>
-    <t>Z24,Z25</t>
-  </si>
-  <si>
-    <t>Z21,Z22,Z31</t>
-  </si>
-  <si>
-    <t>Z9,Z10,Z11</t>
-  </si>
-  <si>
-    <t>Z1,Z27</t>
-  </si>
-  <si>
-    <t>BLUE</t>
-  </si>
-  <si>
-    <t>ONLY WITH ACE81</t>
-  </si>
-  <si>
-    <t>VIDEO CONN</t>
-  </si>
-  <si>
-    <t>AV-8.4-5 3 PINES</t>
-  </si>
-  <si>
-    <t>Z3-4,Z5-6,Z7-8</t>
-  </si>
-  <si>
-    <t>256Kbit (32KBx8)</t>
-  </si>
-  <si>
-    <t>PASSIVE BUZZER 16 ohm</t>
-  </si>
-  <si>
-    <t>JACK 3.5mm</t>
-  </si>
-  <si>
-    <t>EAR,MIC,POWER</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>PUSH BUTTON 90º</t>
-  </si>
-  <si>
-    <t>DIPSWITCH</t>
-  </si>
-  <si>
-    <t>C10,C13..C21</t>
-  </si>
-  <si>
-    <t>DO NOT INSTALL</t>
-  </si>
-  <si>
     <t>R1,R6,R11..R23,R100..R107,R200,R207</t>
   </si>
   <si>
-    <t xml:space="preserve">ONLY WITH SJ1 OPENED </t>
-  </si>
-  <si>
-    <t>SRAM</t>
-  </si>
-  <si>
-    <t>ONLY WITHOUT ACE81</t>
-  </si>
-  <si>
-    <t>Replace D12..D17 by a 0R resistor</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>R44</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>R45..R47</t>
   </si>
 </sst>
 </file>
@@ -621,10 +636,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,6 +656,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638E4E5B-8038-46C2-AE5A-2C900EF04C01}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,22 +1013,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -1021,7 +1040,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>300</v>
@@ -1039,7 +1058,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>330</v>
@@ -1057,7 +1076,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>680</v>
@@ -1075,7 +1094,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -1093,7 +1112,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -1111,7 +1130,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -1129,7 +1148,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -1171,19 +1190,22 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
@@ -1197,17 +1219,14 @@
       <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
@@ -1222,10 +1241,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
@@ -1240,10 +1259,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
@@ -1258,28 +1277,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -1294,10 +1313,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -1308,152 +1327,155 @@
       <c r="E18" t="s">
         <v>54</v>
       </c>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+        <v>178</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -1468,10 +1490,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -1486,10 +1508,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1502,525 +1524,597 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31">
-        <v>7805</v>
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>30</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="B35">
+        <v>7805</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>133</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
-      </c>
-      <c r="H54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
-      </c>
-      <c r="D56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
         <v>81</v>
       </c>
-      <c r="B57" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E61" t="s">
         <v>82</v>
       </c>
-      <c r="D57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" t="s">
-        <v>84</v>
-      </c>
-      <c r="I57" s="4"/>
+      <c r="I61" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P57">
-    <sortCondition ref="B2:B57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P61">
+    <sortCondition ref="B2:B61"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
